--- a/results/mp/logistic/corona/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,147 +46,123 @@
     <t>death</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>debt</t>
-  </si>
-  <si>
-    <t>crash</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>falling</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>lowest</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>lowest</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>facing</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -199,19 +175,25 @@
     <t>due</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>people</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>people</t>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -223,247 +205,253 @@
     <t>love</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>funny</t>
   </si>
   <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>team</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
     <t>want</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>make</t>
   </si>
   <si>
     <t>need</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -821,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,10 +817,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -911,16 +899,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -932,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -961,16 +949,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -982,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -990,13 +978,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1008,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1032,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1040,13 +1028,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8287671232876712</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1058,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -1090,13 +1078,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1108,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>0.8888888888888888</v>
@@ -1140,13 +1128,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8157894736842105</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1161,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>0.8846153846153846</v>
@@ -1190,13 +1178,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1208,31 +1196,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L9">
+        <v>106</v>
+      </c>
+      <c r="M9">
+        <v>106</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
-      </c>
-      <c r="M9">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1240,13 +1228,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8125</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1258,31 +1246,31 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.8666666666666667</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1290,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1311,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K11">
-        <v>0.8611111111111112</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1332,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1340,13 +1328,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7777777777777778</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1358,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.8571428571428571</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1382,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1390,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7692307692307693</v>
+        <v>0.72</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1408,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.8433420365535248</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L13">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1432,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1440,13 +1428,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7297297297297297</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1458,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.8297872340425532</v>
+        <v>0.8481675392670157</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>324</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>325</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1479,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1490,13 +1478,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1508,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.8292682926829268</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M15">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1532,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1540,37 +1528,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1582,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1590,13 +1578,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6956521739130435</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1608,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L17">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1632,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1640,38 +1628,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6842105263157895</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18">
+        <v>0.8125</v>
+      </c>
+      <c r="L18">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>13</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18">
-        <v>0.8028169014084507</v>
-      </c>
-      <c r="L18">
-        <v>114</v>
-      </c>
-      <c r="M18">
-        <v>114</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1682,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1690,13 +1678,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.675</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1708,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L19">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1732,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1761,16 +1749,16 @@
         <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K20">
-        <v>0.796875</v>
+        <v>0.8046875</v>
       </c>
       <c r="L20">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1782,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1811,16 +1799,16 @@
         <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.7924528301886793</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L21">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1832,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1840,13 +1828,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6078431372549019</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1858,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.7906976744186046</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1882,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1890,13 +1878,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.5794573643410853</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1908,19 +1896,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.7727272727272727</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1932,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1940,13 +1928,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5988372093023255</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C24">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>309</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1958,19 +1946,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K24">
-        <v>0.7708333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1982,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1990,13 +1978,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5932203389830508</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2008,31 +1996,31 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25">
+        <v>0.7735849056603774</v>
+      </c>
+      <c r="L25">
+        <v>82</v>
+      </c>
+      <c r="M25">
+        <v>82</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>24</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25">
-        <v>0.75</v>
-      </c>
-      <c r="L25">
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <v>18</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2040,7 +2028,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5909090909090909</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -2058,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K26">
         <v>0.75</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2082,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2090,13 +2078,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.582010582010582</v>
+        <v>0.5608465608465608</v>
       </c>
       <c r="C27">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D27">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2108,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2132,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2140,13 +2128,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5769230769230769</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2158,19 +2146,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2182,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2190,13 +2178,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5769230769230769</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2208,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.7368421052631579</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2232,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2240,13 +2228,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5641025641025641</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2258,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.7301587301587301</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2282,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2290,13 +2278,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5570469798657718</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C31">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2308,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K31">
         <v>0.7272727272727273</v>
@@ -2340,13 +2328,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5384615384615384</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2358,19 +2346,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2382,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2390,49 +2378,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5135135135135135</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>28</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L33">
+        <v>44</v>
+      </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>19</v>
-      </c>
-      <c r="D33">
-        <v>19</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>18</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L33">
-        <v>27</v>
-      </c>
-      <c r="M33">
-        <v>28</v>
-      </c>
-      <c r="N33">
-        <v>0.96</v>
-      </c>
-      <c r="O33">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2440,13 +2428,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4909090909090909</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2458,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.6857142857142857</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2482,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2490,13 +2478,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4838709677419355</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2508,19 +2496,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.6842105263157895</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2532,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2540,13 +2528,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4838709677419355</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2558,19 +2546,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.6735294117647059</v>
+        <v>0.6372881355932203</v>
       </c>
       <c r="L36">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="M36">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2582,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2590,13 +2578,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4814814814814815</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2608,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.6538461538461539</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2632,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2640,7 +2628,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.46875</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C38">
         <v>15</v>
@@ -2658,19 +2646,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.6428571428571429</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2682,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2690,13 +2678,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C39">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2708,19 +2696,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.6428571428571429</v>
+        <v>0.625</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2732,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2740,13 +2728,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4516129032258064</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2758,19 +2746,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="L40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2782,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2790,13 +2778,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4363636363636363</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2808,19 +2796,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.6363636363636364</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2832,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2840,13 +2828,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4333333333333333</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="C42">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2858,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.6271186440677966</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L42">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2882,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2890,13 +2878,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4133333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="C43">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2908,19 +2896,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.6192468619246861</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L43">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2932,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2940,13 +2928,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.4025974025974026</v>
+        <v>0.2332439678284182</v>
       </c>
       <c r="C44">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D44">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2958,10 +2946,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K44">
         <v>0.6071428571428571</v>
@@ -2990,13 +2978,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3939393939393939</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3008,19 +2996,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>254</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.6</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3032,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3040,37 +3028,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.3611111111111111</v>
+        <v>0.07876712328767123</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K46">
-        <v>0.5957446808510638</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="L46">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M46">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3082,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3090,37 +3078,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.35</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K47">
-        <v>0.5882352941176471</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L47">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3132,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3140,37 +3128,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.3412698412698413</v>
+        <v>0.03972366148531951</v>
       </c>
       <c r="C48">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>166</v>
+        <v>1112</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K48">
-        <v>0.5857142857142857</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L48">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3182,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3190,49 +3178,49 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.3333333333333333</v>
+        <v>0.03625768857235351</v>
       </c>
       <c r="C49">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D49">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>34</v>
+        <v>2977</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K49">
-        <v>0.5853658536585366</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L49">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3240,38 +3228,38 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3125</v>
+        <v>0.03189493433395872</v>
       </c>
       <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>0.41</v>
+      </c>
+      <c r="F50">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>516</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L50">
         <v>25</v>
       </c>
-      <c r="D50">
+      <c r="M50">
         <v>25</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>55</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K50">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L50">
-        <v>14</v>
-      </c>
-      <c r="M50">
-        <v>14</v>
-      </c>
       <c r="N50">
         <v>1</v>
       </c>
@@ -3282,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3290,49 +3278,49 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2542372881355932</v>
+        <v>0.03012746234067207</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>44</v>
+        <v>837</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K51">
-        <v>0.5730337078651685</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L51">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3340,49 +3328,49 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2204301075268817</v>
+        <v>0.02813852813852814</v>
       </c>
       <c r="C52">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>0.87</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K52">
-        <v>0.5652173913043478</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>15</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>13</v>
-      </c>
-      <c r="M52">
-        <v>13</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3390,31 +3378,31 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.18</v>
+        <v>0.02129673450070989</v>
       </c>
       <c r="C53">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D53">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>246</v>
+        <v>2068</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K53">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
         <v>13</v>
@@ -3432,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3440,37 +3428,37 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.07167235494880546</v>
+        <v>0.01368421052631579</v>
       </c>
       <c r="C54">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D54">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>272</v>
+        <v>937</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K54">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3482,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3490,28 +3478,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06382978723404255</v>
+        <v>0.009312780989081566</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0.75</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>220</v>
+        <v>3085</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K55">
         <v>0.4814814814814815</v>
@@ -3536,291 +3524,147 @@
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.03894839337877313</v>
-      </c>
-      <c r="C56">
+      <c r="J56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K56">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="L57">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <v>15</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K58">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>13</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K59">
+        <v>0.410958904109589</v>
+      </c>
+      <c r="L59">
+        <v>30</v>
+      </c>
+      <c r="M59">
+        <v>30</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K60">
+        <v>0.375</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>24</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D56">
-        <v>146</v>
-      </c>
-      <c r="E56">
-        <v>0.18</v>
-      </c>
-      <c r="F56">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>2961</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K56">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="L56">
-        <v>33</v>
-      </c>
-      <c r="M56">
-        <v>34</v>
-      </c>
-      <c r="N56">
-        <v>0.97</v>
-      </c>
-      <c r="O56">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.03816131830008673</v>
-      </c>
-      <c r="C57">
-        <v>44</v>
-      </c>
-      <c r="D57">
-        <v>52</v>
-      </c>
-      <c r="E57">
-        <v>0.15</v>
-      </c>
-      <c r="F57">
-        <v>0.85</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1109</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K57">
-        <v>0.456140350877193</v>
-      </c>
-      <c r="L57">
-        <v>26</v>
-      </c>
-      <c r="M57">
-        <v>26</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.03128621089223638</v>
-      </c>
-      <c r="C58">
-        <v>27</v>
-      </c>
-      <c r="D58">
-        <v>31</v>
-      </c>
-      <c r="E58">
-        <v>0.13</v>
-      </c>
-      <c r="F58">
-        <v>0.87</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>836</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K58">
-        <v>0.4411764705882353</v>
-      </c>
-      <c r="L58">
-        <v>15</v>
-      </c>
-      <c r="M58">
-        <v>15</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.02826189354686764</v>
-      </c>
-      <c r="C59">
-        <v>60</v>
-      </c>
-      <c r="D59">
-        <v>80</v>
-      </c>
-      <c r="E59">
-        <v>0.25</v>
-      </c>
-      <c r="F59">
-        <v>0.75</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2063</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K59">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="L59">
-        <v>13</v>
-      </c>
-      <c r="M59">
-        <v>14</v>
-      </c>
-      <c r="N59">
-        <v>0.93</v>
-      </c>
-      <c r="O59">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.0241635687732342</v>
-      </c>
-      <c r="C60">
-        <v>13</v>
-      </c>
-      <c r="D60">
-        <v>20</v>
-      </c>
-      <c r="E60">
-        <v>0.35</v>
-      </c>
-      <c r="F60">
-        <v>0.65</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>525</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K60">
-        <v>0.421875</v>
-      </c>
-      <c r="L60">
-        <v>27</v>
-      </c>
-      <c r="M60">
-        <v>27</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.00967741935483871</v>
-      </c>
-      <c r="C61">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>131</v>
-      </c>
-      <c r="E61">
-        <v>0.77</v>
-      </c>
-      <c r="F61">
-        <v>0.23</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>3070</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="K61">
-        <v>0.3898305084745763</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L61">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3832,21 +3676,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K62">
-        <v>0.3770491803278688</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3858,41 +3702,41 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K63">
-        <v>0.3717948717948718</v>
+        <v>0.3275862068965517</v>
       </c>
       <c r="L63">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K64">
-        <v>0.2765957446808511</v>
+        <v>0.325</v>
       </c>
       <c r="L64">
         <v>13</v>
@@ -3910,15 +3754,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K65">
-        <v>0.25</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L65">
         <v>18</v>
@@ -3936,47 +3780,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K66">
-        <v>0.1904761904761905</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N66">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K67">
-        <v>0.1693548387096774</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3988,99 +3832,99 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>103</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K68">
-        <v>0.1666666666666667</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K69">
-        <v>0.1458333333333333</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K70">
-        <v>0.1368421052631579</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="K71">
-        <v>0.1118881118881119</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L71">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4092,47 +3936,47 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K72">
-        <v>0.1006493506493507</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L72">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>277</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K73">
-        <v>0.09923664122137404</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -4144,41 +3988,41 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K74">
-        <v>0.09876543209876543</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N74">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K75">
-        <v>0.0972972972972973</v>
+        <v>0.1258741258741259</v>
       </c>
       <c r="L75">
         <v>18</v>
@@ -4196,47 +4040,47 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K76">
-        <v>0.08996539792387544</v>
+        <v>0.1118012422360248</v>
       </c>
       <c r="L76">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>263</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K77">
-        <v>0.08139534883720931</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -4248,177 +4092,177 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K78">
-        <v>0.07780979827089338</v>
+        <v>0.1042345276872964</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M78">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N78">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O78">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>320</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K79">
-        <v>0.0748792270531401</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M79">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>383</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K80">
-        <v>0.04294478527607362</v>
+        <v>0.08304498269896193</v>
       </c>
       <c r="L80">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M80">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N80">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>312</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K81">
-        <v>0.04231974921630094</v>
+        <v>0.06265060240963856</v>
       </c>
       <c r="L81">
+        <v>26</v>
+      </c>
+      <c r="M81">
         <v>27</v>
       </c>
-      <c r="M81">
-        <v>39</v>
-      </c>
       <c r="N81">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O81">
-        <v>0.3100000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>611</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="K82">
-        <v>0.03185115105644907</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="L82">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="N82">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="O82">
-        <v>0.23</v>
+        <v>0.13</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>3070</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K83">
-        <v>0.02587176602924635</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M83">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N83">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="O83">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>866</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K84">
-        <v>0.0244988864142539</v>
+        <v>0.0334448160535117</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M84">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N84">
         <v>0.88</v>
@@ -4430,85 +4274,163 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="K85">
-        <v>0.015625</v>
+        <v>0.02742749054224464</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="M85">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="N85">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="O85">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>945</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="K86">
-        <v>0.009601536245799328</v>
+        <v>0.02660406885758998</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="N86">
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
       <c r="O86">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>2063</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K87">
-        <v>0.008704385671242048</v>
+        <v>0.01884816753926702</v>
       </c>
       <c r="L87">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M87">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="N87">
-        <v>0.18</v>
+        <v>0.58</v>
       </c>
       <c r="O87">
-        <v>0.8200000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>2961</v>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K88">
+        <v>0.01460674157303371</v>
+      </c>
+      <c r="L88">
+        <v>13</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>0.76</v>
+      </c>
+      <c r="O88">
+        <v>0.24</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K89">
+        <v>0.01429933269780744</v>
+      </c>
+      <c r="L89">
+        <v>30</v>
+      </c>
+      <c r="M89">
+        <v>75</v>
+      </c>
+      <c r="N89">
+        <v>0.4</v>
+      </c>
+      <c r="O89">
+        <v>0.6</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K90">
+        <v>0.006010016694490818</v>
+      </c>
+      <c r="L90">
+        <v>18</v>
+      </c>
+      <c r="M90">
+        <v>130</v>
+      </c>
+      <c r="N90">
+        <v>0.14</v>
+      </c>
+      <c r="O90">
+        <v>0.86</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2977</v>
       </c>
     </row>
   </sheetData>
